--- a/src/main/resources/tempDir/items.xlsx
+++ b/src/main/resources/tempDir/items.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>ШТ</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Пальто</t>
   </si>
   <si>
-    <t>999.1</t>
-  </si>
-  <si>
     <t>Брюки</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
   </si>
   <si>
     <t>Футболка</t>
-  </si>
-  <si>
-    <t>9999.1</t>
   </si>
 </sst>
 </file>
@@ -84,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -369,7 +364,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,8 +382,8 @@
       <c r="C1">
         <v>10999</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
+      <c r="D1">
+        <v>9999.1</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -399,13 +394,13 @@
         <v>1226</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>5555</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
+      <c r="D2">
+        <v>999.1</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -416,13 +411,13 @@
         <v>12235</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>44444</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
+      <c r="D3">
+        <v>999.1</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -433,13 +428,13 @@
         <v>12425</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>2333</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
+      <c r="D4" s="1">
+        <v>999.1</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
@@ -450,13 +445,13 @@
         <v>6545</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>1111</v>
       </c>
-      <c r="D5" t="s">
-        <v>2</v>
+      <c r="D5">
+        <v>999.1</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
@@ -467,13 +462,13 @@
         <v>544546</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>10999</v>
       </c>
-      <c r="D6" t="s">
-        <v>2</v>
+      <c r="D6">
+        <v>999.1</v>
       </c>
       <c r="E6" t="s">
         <v>0</v>
@@ -484,13 +479,13 @@
         <v>343434</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>1999</v>
       </c>
-      <c r="D7" t="s">
-        <v>2</v>
+      <c r="D7">
+        <v>999.1</v>
       </c>
       <c r="E7" t="s">
         <v>0</v>
@@ -498,5 +493,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>